--- a/1-零件清单/来电科技前期投入费用汇总.xlsx
+++ b/1-零件清单/来电科技前期投入费用汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -304,7 +304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,29 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,9 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +343,14 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,22 +364,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +395,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -425,15 +403,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +439,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -456,19 +456,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,19 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,139 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,21 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -754,6 +739,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,20 +791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,137 +845,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,9 +985,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,15 +1018,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,9 +1025,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,7 +1363,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1396,53 +1381,53 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="20.25" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:6">
-      <c r="A3" s="25">
+      <c r="A3" s="20">
         <f>固定资产!D2</f>
         <v>346807</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="21">
         <f>模具!D2</f>
         <v>111000</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21">
         <f>打样!D2</f>
-        <v>5866.4</v>
-      </c>
-      <c r="E3" s="26">
+        <v>7826.4</v>
+      </c>
+      <c r="E3" s="21">
         <f>其他!C2</f>
         <v>20000</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="21">
         <f>SUM(A3:E3)</f>
-        <v>483673.4</v>
+        <v>485633.4</v>
       </c>
     </row>
   </sheetData>
@@ -1477,368 +1462,368 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="20.25" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4">
         <f>SUM(F:F)</f>
         <v>346807</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="20.25" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>44398</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>160000</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
-        <f>D4*E4</f>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>160000</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>44405</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>175000</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
-        <f>D5*E5</f>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
         <v>175000</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>44317</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>6799</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
-        <f>D6*E6</f>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
         <v>6799</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>44318</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1398</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
-        <f>D7*E7</f>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
         <v>1398</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>44319</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1860</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
-        <f>D8*E8</f>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>44320</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1750</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
-        <f>D9*E9</f>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="1"/>
@@ -1952,176 +1937,176 @@
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17">
         <f>SUM(E:E)</f>
         <v>111000</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" ht="20.25" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>44389</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>17000</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>16000</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>18000</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>44405</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>60000</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1"/>
@@ -2263,396 +2248,396 @@
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" ht="20.25" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4">
         <f>SUM(F:F)</f>
-        <v>5866.4</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+        <v>7826.4</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="20.25" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
-        <v>2210</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>4170</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>56.5</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>20</v>
       </c>
-      <c r="F5" s="10">
-        <f>D5*E5</f>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F10" si="0">D5*E5</f>
         <v>1130</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3.2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>42</v>
       </c>
-      <c r="F6" s="10">
-        <f>D6*E6</f>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
         <v>134.4</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>636</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="10">
-        <f>D7*E7</f>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
         <v>1272</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>300</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
-        <f>D8*E8</f>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>251</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
-        <f>D9*E9</f>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>269</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="10">
-        <f>D10*E10</f>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
         <v>269</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2671,7 +2656,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2689,126 +2674,126 @@
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="20.25" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6">
         <f>SUM(D:D)</f>
         <v>20000</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" ht="20.25" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>44317</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>20000</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
